--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>имя переменной</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>Стоимость МК с доставкой, руб</t>
+  </si>
+  <si>
+    <t>Window_length</t>
+  </si>
+  <si>
+    <t>Window_heigh</t>
+  </si>
+  <si>
+    <t>Number_of_windows</t>
+  </si>
+  <si>
+    <t>Window_area</t>
+  </si>
+  <si>
+    <t>Total_area_of_windows</t>
   </si>
 </sst>
 </file>
@@ -509,7 +524,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,26 +608,41 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>имя переменной</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>Total_area_of_windows</t>
+  </si>
+  <si>
+    <t>Door_length</t>
+  </si>
+  <si>
+    <t>Door_height</t>
+  </si>
+  <si>
+    <t>Number_of_doors</t>
+  </si>
+  <si>
+    <t>Door_area</t>
   </si>
 </sst>
 </file>
@@ -523,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,57 +659,69 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>45</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>имя переменной</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Door_area</t>
+  </si>
+  <si>
+    <t>Total_area_of_doors</t>
+  </si>
+  <si>
+    <t>от чего зависит? Как посчитать?</t>
   </si>
 </sst>
 </file>
@@ -229,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,10 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,29 +546,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -571,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -579,31 +596,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -611,15 +637,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -627,7 +656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -635,7 +664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -643,7 +672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -651,7 +680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -659,7 +688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -667,7 +696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -675,7 +704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -683,7 +712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -691,107 +720,140 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>49</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>имя переменной</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>от чего зависит? Как посчитать?</t>
+  </si>
+  <si>
+    <t>Gate_length</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +732,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>имя переменной</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Gate_length</t>
+  </si>
+  <si>
+    <t>Gate_height</t>
+  </si>
+  <si>
+    <t>Metal_consumption</t>
   </si>
 </sst>
 </file>
@@ -551,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,6 +746,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -760,6 +769,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
       <c r="B30" t="s">
         <v>45</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>имя переменной</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Metal_consumption</t>
+  </si>
+  <si>
+    <t>Number_of_gates</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,6 +757,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>имя переменной</t>
   </si>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>Number_of_gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Gate_area</t>
   </si>
 </sst>
 </file>
@@ -273,11 +277,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +771,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>имя переменной</t>
   </si>
@@ -218,6 +218,12 @@
   <si>
     <t xml:space="preserve">
 Gate_area</t>
+  </si>
+  <si>
+    <t>Total_area_of_the_gate</t>
+  </si>
+  <si>
+    <t>Данные вводит пользователь</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +267,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -285,6 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -565,20 +578,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>47</v>
       </c>
@@ -586,12 +600,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,23 +613,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -626,7 +646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -637,7 +657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -648,7 +668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -656,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -667,7 +687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -675,7 +695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -683,7 +703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -691,7 +711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -699,7 +719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -780,6 +800,9 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>имя переменной</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Данные вводит пользователь</t>
+  </si>
+  <si>
+    <t>Window_length * Window_heigh</t>
+  </si>
+  <si>
+    <t>Window_area *  Number_of_windows</t>
   </si>
 </sst>
 </file>
@@ -272,12 +278,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -285,11 +291,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,7 +318,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -580,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +642,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -631,7 +653,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -694,6 +716,9 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -702,6 +727,9 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -710,6 +738,9 @@
       <c r="B14" t="s">
         <v>32</v>
       </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -718,6 +749,9 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -726,32 +760,44 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -759,7 +805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -767,7 +813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -775,7 +821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -783,7 +829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -791,7 +837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -799,7 +845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -807,7 +853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>имя переменной</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Window_area *  Number_of_windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door_length * Door_height </t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +807,9 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -819,6 +825,9 @@
       </c>
       <c r="B24" t="s">
         <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>имя переменной</t>
   </si>
@@ -606,7 +606,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,6 +837,9 @@
       <c r="B25" t="s">
         <v>41</v>
       </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -844,6 +847,9 @@
       </c>
       <c r="B26" t="s">
         <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>имя переменной</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">Door_length * Door_height </t>
+  </si>
+  <si>
+    <t>Gate_length * Gate_height</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -309,11 +312,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +335,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -606,7 +620,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +873,9 @@
       <c r="B27" t="s">
         <v>43</v>
       </c>
+      <c r="D27" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -867,6 +884,7 @@
       <c r="B28" t="s">
         <v>44</v>
       </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>имя переменной</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Gate_length * Gate_height</t>
+  </si>
+  <si>
+    <t>Number_of_gates * Gate_area</t>
   </si>
 </sst>
 </file>
@@ -330,13 +333,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -619,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +660,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -670,7 +671,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -766,7 +767,7 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -777,7 +778,7 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -867,13 +868,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -884,7 +885,9 @@
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>имя переменной</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Number_of_gates * Gate_area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уточнить </t>
   </si>
 </sst>
 </file>
@@ -620,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +902,9 @@
       <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>имя переменной</t>
   </si>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,6 +718,9 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>имя переменной</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">Уточнить </t>
+  </si>
+  <si>
+    <t>Door_area * Number_of_doors</t>
   </si>
 </sst>
 </file>
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,6 +842,9 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
